--- a/data_year/zb/综合/民族自治地方/民族自治地方工业.xlsx
+++ b/data_year/zb/综合/民族自治地方/民族自治地方工业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,392 +493,152 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2291.7067</v>
+        <v>3059.1815</v>
       </c>
       <c r="C2" t="n">
-        <v>1.462251209</v>
+        <v>10.3894283602</v>
       </c>
       <c r="D2" t="n">
-        <v>1712.45598</v>
+        <v>6729.86103</v>
       </c>
       <c r="E2" t="n">
-        <v>3923.47</v>
+        <v>38473.8601</v>
       </c>
       <c r="F2" t="n">
-        <v>5.009603</v>
+        <v>3.6326</v>
       </c>
       <c r="G2" t="n">
-        <v>498.2184</v>
+        <v>906.886756</v>
       </c>
       <c r="H2" t="n">
-        <v>1052.4888</v>
+        <v>417.0105</v>
       </c>
       <c r="I2" t="n">
-        <v>175.4627</v>
+        <v>385.2677</v>
       </c>
       <c r="J2" t="n">
-        <v>5703.1496</v>
+        <v>21652.559438</v>
       </c>
       <c r="K2" t="n">
-        <v>724.8395</v>
+        <v>4447.4943</v>
       </c>
       <c r="L2" t="n">
-        <v>647.0505000000001</v>
+        <v>4004.8127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2832.5</v>
+        <v>3185.83907</v>
       </c>
       <c r="C3" t="n">
-        <v>3.8</v>
+        <v>10.7862415877</v>
       </c>
       <c r="D3" t="n">
-        <v>3052.2</v>
+        <v>7131.440757</v>
       </c>
       <c r="E3" t="n">
-        <v>10653.6</v>
+        <v>50975.929457</v>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>3.7356</v>
       </c>
       <c r="G3" t="n">
-        <v>678.1</v>
+        <v>935.386135</v>
       </c>
       <c r="H3" t="n">
-        <v>169.4</v>
+        <v>341.8781</v>
       </c>
       <c r="I3" t="n">
-        <v>272.9</v>
+        <v>437.372432</v>
       </c>
       <c r="J3" t="n">
-        <v>10155.9</v>
+        <v>23235.355425</v>
       </c>
       <c r="K3" t="n">
-        <v>2086.8</v>
+        <v>4799.340576</v>
       </c>
       <c r="L3" t="n">
-        <v>1846.3</v>
+        <v>3240.007584</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2913.8</v>
+        <v>3230.0972</v>
       </c>
       <c r="C4" t="n">
-        <v>4.3</v>
+        <v>13.8050358509</v>
       </c>
       <c r="D4" t="n">
-        <v>3740.2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14214.7</v>
-      </c>
+        <v>8989.47147</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>2.06865</v>
       </c>
       <c r="G4" t="n">
-        <v>758.5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>464.5</v>
-      </c>
+        <v>1102.302523</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>258.7</v>
+        <v>512.9363</v>
       </c>
       <c r="J4" t="n">
-        <v>11752.7</v>
+        <v>31246.763574</v>
       </c>
       <c r="K4" t="n">
-        <v>2384.3</v>
+        <v>5140.4951</v>
       </c>
       <c r="L4" t="n">
-        <v>2150.2</v>
+        <v>4018.9415</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3033.0795</v>
+        <v>3345.38754</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0991084682</v>
+        <v>13.4545853974</v>
       </c>
       <c r="D5" t="n">
-        <v>4903.3687217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>19025.54176</v>
-      </c>
+        <v>10450.700105</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>4.460387</v>
+        <v>1.748911999</v>
       </c>
       <c r="G5" t="n">
-        <v>1005.39283</v>
-      </c>
-      <c r="H5" t="n">
-        <v>131.40738</v>
-      </c>
+        <v>1282.795753</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>283.38958</v>
+        <v>509.4577</v>
       </c>
       <c r="J5" t="n">
-        <v>14011.360625</v>
+        <v>35512.691146</v>
       </c>
       <c r="K5" t="n">
-        <v>2907.68452</v>
+        <v>5838.653011</v>
       </c>
       <c r="L5" t="n">
-        <v>2660.0415</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3054.78</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6.52838768</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5500.947817</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25910.66128</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.2091</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1174.416575</v>
-      </c>
-      <c r="H6" t="n">
-        <v>385.3401</v>
-      </c>
-      <c r="I6" t="n">
-        <v>358.321367</v>
-      </c>
-      <c r="J6" t="n">
-        <v>15779.763932</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3021.32083</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2980.8671</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4649.487921</v>
-      </c>
-      <c r="C7" t="n">
-        <v>8.3287336745</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5910.843326</v>
-      </c>
-      <c r="E7" t="n">
-        <v>29145.37507</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.088515</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1047.412705</v>
-      </c>
-      <c r="H7" t="n">
-        <v>400.5529</v>
-      </c>
-      <c r="I7" t="n">
-        <v>500.217093</v>
-      </c>
-      <c r="J7" t="n">
-        <v>21375.538029</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3945.557</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3468.6056</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3059.1815</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10.3894283602</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6729.86103</v>
-      </c>
-      <c r="E8" t="n">
-        <v>38473.8601</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.6326</v>
-      </c>
-      <c r="G8" t="n">
-        <v>906.886756</v>
-      </c>
-      <c r="H8" t="n">
-        <v>417.0105</v>
-      </c>
-      <c r="I8" t="n">
-        <v>385.2677</v>
-      </c>
-      <c r="J8" t="n">
-        <v>21652.559438</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4447.4943</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4004.8127</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3185.83907</v>
-      </c>
-      <c r="C9" t="n">
-        <v>10.7862415877</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7131.440757</v>
-      </c>
-      <c r="E9" t="n">
-        <v>50975.929457</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.7356</v>
-      </c>
-      <c r="G9" t="n">
-        <v>935.386135</v>
-      </c>
-      <c r="H9" t="n">
-        <v>341.8781</v>
-      </c>
-      <c r="I9" t="n">
-        <v>437.372432</v>
-      </c>
-      <c r="J9" t="n">
-        <v>23235.355425</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4799.340576</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3240.007584</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3230.0972</v>
-      </c>
-      <c r="C10" t="n">
-        <v>13.8050358509</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8989.47147</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>2.06865</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1102.302523</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>512.9363</v>
-      </c>
-      <c r="J10" t="n">
-        <v>31246.763574</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5140.4951</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4018.9415</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3345.38754</v>
-      </c>
-      <c r="C11" t="n">
-        <v>13.4545853974</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10450.700105</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>1.748911999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1282.795753</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
-        <v>509.4577</v>
-      </c>
-      <c r="J11" t="n">
-        <v>35512.691146</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5838.653011</v>
-      </c>
-      <c r="L11" t="n">
         <v>4671.5961</v>
       </c>
     </row>
